--- a/data/trans_orig/Q64A_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q64A_R-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>98.86652842507196</v>
+        <v>97.80360677612134</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>129.3997724554944</v>
+        <v>132.3351638283044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107.9352648255506</v>
+        <v>110.3376103820524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124.708562108358</v>
+        <v>123.8420930497078</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>58.61222698301997</v>
+        <v>58.14343311408475</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>88.31479353626736</v>
+        <v>85.5476082521795</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>58.5377355615577</v>
+        <v>56.81975741855274</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>95.45098426666992</v>
+        <v>95.53816801807524</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>89.22632835970248</v>
+        <v>88.84550941254497</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115.6719574842863</v>
+        <v>116.2029478242179</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>96.58435029442299</v>
+        <v>94.41626111364386</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>119.6378556061171</v>
+        <v>121.3767641342169</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>124.5214681688655</v>
+        <v>124.7151486699956</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>174.6655045256785</v>
+        <v>178.5285952975506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>155.0949740252045</v>
+        <v>156.0908906868622</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>173.7150850108555</v>
+        <v>170.1313960440575</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>91.29127181881729</v>
+        <v>89.25336923731014</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>126.2629164930316</v>
+        <v>125.6387597706573</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>102.2113594817993</v>
+        <v>103.7838882010767</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>143.5054375528773</v>
+        <v>144.0740640295898</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>109.800011194093</v>
+        <v>110.3080738192926</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>145.7483458385683</v>
+        <v>146.4346915257022</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>131.2535680532574</v>
+        <v>130.4525872679563</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>156.4475279641823</v>
+        <v>156.9291071720408</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>98.44525409571878</v>
+        <v>98.66539845989874</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>112.5907273668832</v>
+        <v>113.0790987858951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101.6447650349607</v>
+        <v>101.3936647203185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>123.0861128099361</v>
+        <v>122.8306283903433</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>56.71679583101999</v>
+        <v>56.60083452886191</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>68.24049910220428</v>
+        <v>68.89783270331215</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>75.59572479632813</v>
+        <v>75.62693091547825</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>95.05824218037928</v>
+        <v>95.58014340065924</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>85.54946581112767</v>
+        <v>85.58388265061679</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>97.17669539351726</v>
+        <v>97.80178764390547</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92.18752013186206</v>
+        <v>92.76325907024868</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>113.0867057067645</v>
+        <v>112.645701363051</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>110.4735336319145</v>
+        <v>110.1343263312439</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>127.7344292677977</v>
+        <v>128.5034084574031</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>116.0457649958589</v>
+        <v>116.2759451478003</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>137.5905583535749</v>
+        <v>137.8818329603174</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>69.94334778436138</v>
+        <v>69.56929508473645</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>83.21370251374017</v>
+        <v>82.98813981583621</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>89.2061166861539</v>
+        <v>89.42775423934803</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>107.2355824170224</v>
+        <v>107.1546307322807</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>94.55749606158297</v>
+        <v>94.68011303439333</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>108.5604711884311</v>
+        <v>108.3968118368466</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103.0061852844936</v>
+        <v>103.2988746922533</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>123.3696702307492</v>
+        <v>123.2081852072927</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>92.7243577231615</v>
+        <v>92.58473185912787</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>114.7713904273065</v>
+        <v>113.5415311542973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117.7246938816107</v>
+        <v>118.7791095542438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132.3883427101595</v>
+        <v>131.2479286379277</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>81.89645766628618</v>
+        <v>81.07139666667457</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>87.701144442321</v>
+        <v>88.69563677293128</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>100.0023312052586</v>
+        <v>100.07919401245</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>124.161905926799</v>
+        <v>122.7671795651209</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>90.50996765363929</v>
+        <v>90.37635506858658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106.5290029003181</v>
+        <v>106.2311122523788</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>114.0276554014919</v>
+        <v>113.7354706555446</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>130.3465853433511</v>
+        <v>130.8513580373034</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>114.3227055475674</v>
+        <v>113.6449337403297</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>141.5163431343911</v>
+        <v>141.4879875532231</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>142.6959079810674</v>
+        <v>143.458853478557</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156.0289890140824</v>
+        <v>156.2407945581145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>103.5768382218051</v>
+        <v>104.3274531728147</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>114.0713109526397</v>
+        <v>114.6149932601791</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>125.7353633590421</v>
+        <v>125.5755093280845</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>143.764505373635</v>
+        <v>141.5557139452096</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>106.3839678802444</v>
+        <v>106.3287777202619</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>125.9943799213677</v>
+        <v>126.1704740779861</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>131.6033385031865</v>
+        <v>130.8340602471461</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>145.5536929512733</v>
+        <v>146.0759914930263</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>100.2416406903324</v>
+        <v>100.2393262688478</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>119.0012160855551</v>
+        <v>119.5738669940328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110.4043033463253</v>
+        <v>110.7744255126864</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128.8792949342371</v>
+        <v>129.0629773018345</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>67.29605815321723</v>
+        <v>67.33010255593132</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>80.18822654420646</v>
+        <v>80.06034357925586</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>84.72223735688836</v>
+        <v>85.19024769463327</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>106.9270424778723</v>
+        <v>107.6773144973171</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>89.87733863314854</v>
+        <v>90.21410186652342</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>104.9864887265095</v>
+        <v>105.2465989018608</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101.2087516698584</v>
+        <v>101.505847916016</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>121.0118321641549</v>
+        <v>120.9205223536153</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>109.9327450119441</v>
+        <v>109.4656671523721</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>132.1334119917518</v>
+        <v>132.3527926439109</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>122.5839842719578</v>
+        <v>122.5822570689046</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>141.3238027562753</v>
+        <v>140.8623919405569</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>78.26500382994116</v>
+        <v>78.56874866732927</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>92.25235460633859</v>
+        <v>92.44101740096825</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>96.94666986755652</v>
+        <v>97.51569095107375</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>117.1741276200023</v>
+        <v>117.7411553880391</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>97.24199957398388</v>
+        <v>98.01262376484635</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>114.1944258346309</v>
+        <v>114.5235635014652</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>110.3686248971586</v>
+        <v>110.1678076399129</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>129.0448096229091</v>
+        <v>128.9748262593576</v>
       </c>
     </row>
     <row r="16">
